--- a/test_files/mcE67_PD14_Figueres_Proteins.xlsx
+++ b/test_files/mcE67_PD14_Figueres_Proteins.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000"/>
+    <workbookView xWindow="1005" yWindow="1005" windowWidth="15000" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -807,9 +808,6 @@
     <t>P04264</t>
   </si>
   <si>
-    <t>P04745</t>
-  </si>
-  <si>
     <t>P04746</t>
   </si>
   <si>
@@ -1528,16 +1526,19 @@
   </si>
   <si>
     <t>calc. pI</t>
+  </si>
+  <si>
+    <t>P0DUB6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt formatCode="0.0" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1617,32 +1618,34 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" xfId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" xfId="0" fillId="2" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="2">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="2">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" xfId="0" fillId="3" fontId="2" numFmtId="164">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1711,6 +1714,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1998,16 +2006,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" customWidth="1"/>
@@ -2019,7 +2028,7 @@
     <col min="10" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2027,7 +2036,7 @@
         <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>100</v>
@@ -2051,21 +2060,21 @@
         <v>185</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2" s="3">
         <v>1669.80097234249</v>
       </c>
       <c r="D2" s="4">
-        <v>79.26</v>
+        <v>79.260000000000005</v>
       </c>
       <c r="E2" s="5">
         <v>3</v>
@@ -2089,9 +2098,9 @@
         <v>7.04931640625</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>264</v>
+        <v>504</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>42</v>
@@ -2100,7 +2109,7 @@
         <v>1571.31326162815</v>
       </c>
       <c r="D3" s="4">
-        <v>80.82</v>
+        <v>80.819999999999993</v>
       </c>
       <c r="E3" s="5">
         <v>3</v>
@@ -2118,15 +2127,15 @@
         <v>511</v>
       </c>
       <c r="J3" s="6">
-        <v>57.7309150246601</v>
+        <v>57.730915024660099</v>
       </c>
       <c r="K3" s="3">
         <v>6.93212890625</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>32</v>
@@ -2135,7 +2144,7 @@
         <v>1458.47669112682</v>
       </c>
       <c r="D4" s="4">
-        <v>80.49</v>
+        <v>80.489999999999995</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -2153,24 +2162,24 @@
         <v>615</v>
       </c>
       <c r="J4" s="6">
-        <v>69.87194734466</v>
+        <v>69.871947344660001</v>
       </c>
       <c r="K4" s="3">
         <v>5.74462890625</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="3">
-        <v>1370.16016232967</v>
+        <v>1370.1601623296699</v>
       </c>
       <c r="D5" s="4">
-        <v>79.26</v>
+        <v>79.260000000000005</v>
       </c>
       <c r="E5" s="5">
         <v>2</v>
@@ -2188,13 +2197,13 @@
         <v>511</v>
       </c>
       <c r="J5" s="6">
-        <v>57.6730113146601</v>
+        <v>57.673011314660101</v>
       </c>
       <c r="K5" s="3">
         <v>7.09326171875</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>206</v>
       </c>
@@ -2202,7 +2211,7 @@
         <v>186</v>
       </c>
       <c r="C6" s="3">
-        <v>463.000245094299</v>
+        <v>463.00024509429898</v>
       </c>
       <c r="D6" s="4">
         <v>36.24</v>
@@ -2229,7 +2238,7 @@
         <v>5.50341796875</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>234</v>
       </c>
@@ -2237,7 +2246,7 @@
         <v>216</v>
       </c>
       <c r="C7" s="3">
-        <v>407.24515080452</v>
+        <v>407.24515080451999</v>
       </c>
       <c r="D7" s="4">
         <v>55.18</v>
@@ -2258,21 +2267,21 @@
         <v>386</v>
       </c>
       <c r="J7" s="6">
-        <v>42.8535052046601</v>
+        <v>42.853505204660102</v>
       </c>
       <c r="K7" s="3">
         <v>5.28759765625</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C8" s="3">
-        <v>328.056301593781</v>
+        <v>328.05630159378097</v>
       </c>
       <c r="D8" s="4">
         <v>22.13</v>
@@ -2293,13 +2302,13 @@
         <v>497</v>
       </c>
       <c r="J8" s="6">
-        <v>55.8628526646601</v>
+        <v>55.862852664660103</v>
       </c>
       <c r="K8" s="3">
         <v>7.00537109375</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>254</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="3">
-        <v>318.184248209</v>
+        <v>318.18424820899997</v>
       </c>
       <c r="D9" s="4">
         <v>72.25</v>
@@ -2328,13 +2337,13 @@
         <v>609</v>
       </c>
       <c r="J9" s="6">
-        <v>69.32149882466</v>
+        <v>69.321498824659997</v>
       </c>
       <c r="K9" s="3">
         <v>6.27783203125</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>225</v>
       </c>
@@ -2342,10 +2351,10 @@
         <v>43</v>
       </c>
       <c r="C10" s="3">
-        <v>312.305248498917</v>
+        <v>312.30524849891702</v>
       </c>
       <c r="D10" s="4">
-        <v>16.24</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -2363,24 +2372,24 @@
         <v>511</v>
       </c>
       <c r="J10" s="6">
-        <v>57.6068633246601</v>
+        <v>57.606863324660097</v>
       </c>
       <c r="K10" s="3">
         <v>6.96142578125</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C11" s="3">
-        <v>242.263113737106</v>
+        <v>242.26311373710601</v>
       </c>
       <c r="D11" s="4">
-        <v>19.69</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -2404,9 +2413,9 @@
         <v>5.33837890625</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>84</v>
@@ -2433,13 +2442,13 @@
         <v>419</v>
       </c>
       <c r="J12" s="6">
-        <v>47.11078190466</v>
+        <v>47.110781904660001</v>
       </c>
       <c r="K12" s="3">
         <v>5.75732421875</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>232</v>
       </c>
@@ -2447,7 +2456,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="3">
-        <v>179.783287763596</v>
+        <v>179.78328776359601</v>
       </c>
       <c r="D13" s="4">
         <v>47.61</v>
@@ -2474,7 +2483,7 @@
         <v>5.59228515625</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>244</v>
       </c>
@@ -2482,7 +2491,7 @@
         <v>162</v>
       </c>
       <c r="C14" s="3">
-        <v>152.590082168579</v>
+        <v>152.59008216857899</v>
       </c>
       <c r="D14" s="4">
         <v>85.98</v>
@@ -2503,13 +2512,13 @@
         <v>107</v>
       </c>
       <c r="J14" s="6">
-        <v>11.75776875466</v>
+        <v>11.757768754660001</v>
       </c>
       <c r="K14" s="3">
         <v>6.52197265625</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>257</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>220</v>
       </c>
       <c r="C15" s="3">
-        <v>136.392636060715</v>
+        <v>136.39263606071501</v>
       </c>
       <c r="D15" s="4">
         <v>45.11</v>
@@ -2544,15 +2553,15 @@
         <v>7.12255859375</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C16" s="3">
-        <v>123.356117486954</v>
+        <v>123.35611748695401</v>
       </c>
       <c r="D16" s="4">
         <v>48.48</v>
@@ -2573,21 +2582,21 @@
         <v>528</v>
       </c>
       <c r="J16" s="6">
-        <v>56.7764174946601</v>
+        <v>56.776417494660102</v>
       </c>
       <c r="K16" s="3">
         <v>5.85888671875</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="3">
-        <v>94.8446545600891</v>
+        <v>94.844654560089097</v>
       </c>
       <c r="D17" s="4">
         <v>27.71</v>
@@ -2614,15 +2623,15 @@
         <v>5.47802734375</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C18" s="3">
-        <v>111.079107046127</v>
+        <v>111.07910704612701</v>
       </c>
       <c r="D18" s="4">
         <v>48.2</v>
@@ -2649,18 +2658,18 @@
         <v>6.60986328125</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C19" s="3">
         <v>87.350075006485</v>
       </c>
       <c r="D19" s="4">
-        <v>17.19</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="E19" s="5">
         <v>2</v>
@@ -2684,15 +2693,15 @@
         <v>5.64306640625</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C20" s="3">
-        <v>103.159035205841</v>
+        <v>103.15903520584099</v>
       </c>
       <c r="D20" s="4">
         <v>47.99</v>
@@ -2719,7 +2728,7 @@
         <v>6.04931640625</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>255</v>
       </c>
@@ -2730,7 +2739,7 @@
         <v>81.3786590099335</v>
       </c>
       <c r="D21" s="4">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -2748,21 +2757,21 @@
         <v>607</v>
       </c>
       <c r="J21" s="6">
-        <v>69.24844375466</v>
+        <v>69.248443754660002</v>
       </c>
       <c r="K21" s="3">
         <v>6.17626953125</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C22" s="3">
-        <v>107.84338092804</v>
+        <v>107.84338092804001</v>
       </c>
       <c r="D22" s="4">
         <v>51.4</v>
@@ -2783,21 +2792,21 @@
         <v>214</v>
       </c>
       <c r="J22" s="6">
-        <v>23.36442023466</v>
+        <v>23.364420234659999</v>
       </c>
       <c r="K22" s="3">
         <v>7.16650390625</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="3">
-        <v>75.660799741745</v>
+        <v>75.660799741744995</v>
       </c>
       <c r="D23" s="4">
         <v>22.19</v>
@@ -2818,24 +2827,24 @@
         <v>766</v>
       </c>
       <c r="J23" s="6">
-        <v>88.2224876046601</v>
+        <v>88.222487604660103</v>
       </c>
       <c r="K23" s="3">
         <v>6.03662109375</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C24" s="3">
-        <v>86.2331750392914</v>
+        <v>86.233175039291396</v>
       </c>
       <c r="D24" s="4">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -2853,21 +2862,21 @@
         <v>5179</v>
       </c>
       <c r="J24" s="6">
-        <v>539.958365874683</v>
+        <v>539.95836587468295</v>
       </c>
       <c r="K24" s="3">
         <v>5.79541015625</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C25" s="3">
-        <v>86.4221544265747</v>
+        <v>86.422154426574707</v>
       </c>
       <c r="D25" s="4">
         <v>40.08</v>
@@ -2888,24 +2897,24 @@
         <v>247</v>
       </c>
       <c r="J25" s="6">
-        <v>26.47103543466</v>
+        <v>26.471035434659999</v>
       </c>
       <c r="K25" s="3">
         <v>4.91943359375</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="3">
-        <v>70.8939251899719</v>
+        <v>70.893925189971895</v>
       </c>
       <c r="D26" s="4">
-        <v>37.73</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="E26" s="5">
         <v>2</v>
@@ -2923,21 +2932,21 @@
         <v>607</v>
       </c>
       <c r="J26" s="6">
-        <v>69.64705372466</v>
+        <v>69.647053724659997</v>
       </c>
       <c r="K26" s="3">
         <v>6.49365234375</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C27" s="3">
-        <v>71.6786124706268</v>
+        <v>71.678612470626803</v>
       </c>
       <c r="D27" s="4">
         <v>39.19</v>
@@ -2958,21 +2967,21 @@
         <v>472</v>
       </c>
       <c r="J27" s="6">
-        <v>52.35762741466</v>
+        <v>52.357627414660001</v>
       </c>
       <c r="K27" s="3">
         <v>6.36669921875</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C28" s="3">
-        <v>72.2835764884949</v>
+        <v>72.283576488494901</v>
       </c>
       <c r="D28" s="4">
         <v>51.86</v>
@@ -2993,13 +3002,13 @@
         <v>376</v>
       </c>
       <c r="J28" s="6">
-        <v>42.59406200466</v>
+        <v>42.594062004660003</v>
       </c>
       <c r="K28" s="3">
         <v>5.27490234375</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>248</v>
       </c>
@@ -3007,7 +3016,7 @@
         <v>156</v>
       </c>
       <c r="C29" s="3">
-        <v>70.5614845752716</v>
+        <v>70.561484575271606</v>
       </c>
       <c r="D29" s="4">
         <v>26.91</v>
@@ -3028,21 +3037,21 @@
         <v>353</v>
       </c>
       <c r="J29" s="6">
-        <v>37.63064002466</v>
+        <v>37.630640024660003</v>
       </c>
       <c r="K29" s="3">
         <v>6.50732421875</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="3">
-        <v>57.7720346450806</v>
+        <v>57.772034645080602</v>
       </c>
       <c r="D30" s="4">
         <v>59.55</v>
@@ -3063,21 +3072,21 @@
         <v>220</v>
       </c>
       <c r="J30" s="6">
-        <v>25.87617045466</v>
+        <v>25.876170454659999</v>
       </c>
       <c r="K30" s="3">
         <v>7.32763671875</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C31" s="3">
-        <v>64.9737682342529</v>
+        <v>64.973768234252901</v>
       </c>
       <c r="D31" s="4">
         <v>52.21</v>
@@ -3104,12 +3113,12 @@
         <v>6.91748046875</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C32" s="3">
         <v>54.4915995597839</v>
@@ -3133,21 +3142,21 @@
         <v>640</v>
       </c>
       <c r="J32" s="6">
-        <v>69.7143775546601</v>
+        <v>69.714377554660103</v>
       </c>
       <c r="K32" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C33" s="3">
-        <v>65.0289576053619</v>
+        <v>65.028957605361896</v>
       </c>
       <c r="D33" s="4">
         <v>33.06</v>
@@ -3174,15 +3183,15 @@
         <v>4.77978515625</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C34" s="3">
-        <v>58.8544239997864</v>
+        <v>58.854423999786398</v>
       </c>
       <c r="D34" s="4">
         <v>25.28</v>
@@ -3209,15 +3218,15 @@
         <v>6.25244140625</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="3">
-        <v>50.7026586532593</v>
+        <v>50.702658653259299</v>
       </c>
       <c r="D35" s="4">
         <v>21.75</v>
@@ -3238,21 +3247,21 @@
         <v>607</v>
       </c>
       <c r="J35" s="6">
-        <v>69.14334366466</v>
+        <v>69.143343664659994</v>
       </c>
       <c r="K35" s="3">
         <v>6.15087890625</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="3">
-        <v>51.7133526802063</v>
+        <v>51.713352680206299</v>
       </c>
       <c r="D36" s="4">
         <v>10.64</v>
@@ -3273,21 +3282,21 @@
         <v>1306</v>
       </c>
       <c r="J36" s="6">
-        <v>149.61988106466</v>
+        <v>149.61988106466001</v>
       </c>
       <c r="K36" s="3">
         <v>6.39208984375</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C37" s="3">
-        <v>54.6911251544952</v>
+        <v>54.691125154495197</v>
       </c>
       <c r="D37" s="4">
         <v>41.13</v>
@@ -3308,13 +3317,13 @@
         <v>248</v>
       </c>
       <c r="J37" s="6">
-        <v>26.71288245466</v>
+        <v>26.712882454660001</v>
       </c>
       <c r="K37" s="3">
         <v>7.45947265625</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>229</v>
       </c>
@@ -3322,7 +3331,7 @@
         <v>80</v>
       </c>
       <c r="C38" s="3">
-        <v>45.6850680112839</v>
+        <v>45.685068011283903</v>
       </c>
       <c r="D38" s="4">
         <v>49.81</v>
@@ -3343,21 +3352,21 @@
         <v>261</v>
       </c>
       <c r="J38" s="6">
-        <v>28.85238934466</v>
+        <v>28.852389344660001</v>
       </c>
       <c r="K38" s="3">
         <v>7.12255859375</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C39" s="3">
-        <v>46.5798842906952</v>
+        <v>46.579884290695198</v>
       </c>
       <c r="D39" s="4">
         <v>10.53</v>
@@ -3378,21 +3387,21 @@
         <v>1310</v>
       </c>
       <c r="J39" s="6">
-        <v>141.45494792466</v>
+        <v>141.45494792465999</v>
       </c>
       <c r="K39" s="3">
         <v>4.50048828125</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C40" s="3">
-        <v>50.0897614955902</v>
+        <v>50.089761495590203</v>
       </c>
       <c r="D40" s="4">
         <v>46.37</v>
@@ -3413,21 +3422,21 @@
         <v>248</v>
       </c>
       <c r="J40" s="6">
-        <v>26.60378205466</v>
+        <v>26.603782054660002</v>
       </c>
       <c r="K40" s="3">
         <v>7.19580078125</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C41" s="3">
-        <v>45.9039025306702</v>
+        <v>45.903902530670202</v>
       </c>
       <c r="D41" s="4">
         <v>20.23</v>
@@ -3448,24 +3457,24 @@
         <v>702</v>
       </c>
       <c r="J41" s="6">
-        <v>76.7472299646601</v>
+        <v>76.747229964660093</v>
       </c>
       <c r="K41" s="3">
         <v>5.92236328125</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C42" s="3">
-        <v>45.3053357601166</v>
+        <v>45.305335760116598</v>
       </c>
       <c r="D42" s="4">
-        <v>18.06</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="E42" s="5">
         <v>3</v>
@@ -3483,13 +3492,13 @@
         <v>1019</v>
       </c>
       <c r="J42" s="6">
-        <v>112.86298549466</v>
+        <v>112.86298549465999</v>
       </c>
       <c r="K42" s="3">
         <v>5.03369140625</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>209</v>
       </c>
@@ -3524,7 +3533,7 @@
         <v>5.10986328125</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>235</v>
       </c>
@@ -3532,7 +3541,7 @@
         <v>217</v>
       </c>
       <c r="C44" s="3">
-        <v>42.2451636791229</v>
+        <v>42.245163679122903</v>
       </c>
       <c r="D44" s="4">
         <v>23.97</v>
@@ -3553,21 +3562,21 @@
         <v>388</v>
       </c>
       <c r="J44" s="6">
-        <v>43.74374351466</v>
+        <v>43.743743514659997</v>
       </c>
       <c r="K44" s="3">
         <v>5.30029296875</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C45" s="3">
-        <v>46.0405187606812</v>
+        <v>46.040518760681202</v>
       </c>
       <c r="D45" s="4">
         <v>46</v>
@@ -3594,7 +3603,7 @@
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>203</v>
       </c>
@@ -3602,7 +3611,7 @@
         <v>127</v>
       </c>
       <c r="C46" s="3">
-        <v>49.6781618595123</v>
+        <v>49.678161859512301</v>
       </c>
       <c r="D46" s="4">
         <v>30.88</v>
@@ -3623,13 +3632,13 @@
         <v>340</v>
       </c>
       <c r="J46" s="6">
-        <v>36.29860081466</v>
+        <v>36.298600814659999</v>
       </c>
       <c r="K46" s="3">
         <v>8.79248046875</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>263</v>
       </c>
@@ -3637,10 +3646,10 @@
         <v>177</v>
       </c>
       <c r="C47" s="3">
-        <v>47.0483229160309</v>
+        <v>47.048322916030898</v>
       </c>
       <c r="D47" s="4">
-        <v>32.45</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="E47" s="5">
         <v>23</v>
@@ -3658,21 +3667,21 @@
         <v>644</v>
       </c>
       <c r="J47" s="6">
-        <v>65.9990039546601</v>
+        <v>65.999003954660097</v>
       </c>
       <c r="K47" s="3">
         <v>8.11865234375</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C48" s="3">
-        <v>38.3286027908325</v>
+        <v>38.328602790832498</v>
       </c>
       <c r="D48" s="4">
         <v>31.39</v>
@@ -3693,21 +3702,21 @@
         <v>411</v>
       </c>
       <c r="J48" s="6">
-        <v>45.64499214466</v>
+        <v>45.644992144660002</v>
       </c>
       <c r="K48" s="3">
         <v>6.15087890625</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="3">
-        <v>35.1445114612579</v>
+        <v>35.144511461257899</v>
       </c>
       <c r="D49" s="4">
         <v>20</v>
@@ -3728,24 +3737,24 @@
         <v>740</v>
       </c>
       <c r="J49" s="6">
-        <v>80.5080527846601</v>
+        <v>80.508052784660094</v>
       </c>
       <c r="K49" s="3">
         <v>5.36376953125</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C50" s="3">
-        <v>40.5622079372406</v>
+        <v>40.562207937240601</v>
       </c>
       <c r="D50" s="4">
-        <v>20.42</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="E50" s="5">
         <v>1</v>
@@ -3763,18 +3772,18 @@
         <v>764</v>
       </c>
       <c r="J50" s="6">
-        <v>83.2316563046601</v>
+        <v>83.231656304660106</v>
       </c>
       <c r="K50" s="3">
         <v>5.74462890625</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C51" s="3">
         <v>38.3719096183777</v>
@@ -3804,15 +3813,15 @@
         <v>6.35400390625</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="3">
-        <v>32.2193350791931</v>
+        <v>32.219335079193101</v>
       </c>
       <c r="D52" s="4">
         <v>10.36</v>
@@ -3833,21 +3842,21 @@
         <v>608</v>
       </c>
       <c r="J52" s="6">
-        <v>68.61494624466</v>
+        <v>68.614946244660004</v>
       </c>
       <c r="K52" s="3">
         <v>5.65576171875</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C53" s="3">
-        <v>23.2990438938141</v>
+        <v>23.299043893814101</v>
       </c>
       <c r="D53" s="4">
         <v>56.31</v>
@@ -3874,15 +3883,15 @@
         <v>6.50732421875</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C54" s="3">
-        <v>40.0474438667297</v>
+        <v>40.047443866729701</v>
       </c>
       <c r="D54" s="4">
         <v>59.09</v>
@@ -3909,15 +3918,15 @@
         <v>6.59521484375</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C55" s="3">
-        <v>27.4875564575195</v>
+        <v>27.487556457519499</v>
       </c>
       <c r="D55" s="4">
         <v>22.11</v>
@@ -3944,15 +3953,15 @@
         <v>5.89697265625</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C56" s="3">
-        <v>30.5207333564758</v>
+        <v>30.520733356475802</v>
       </c>
       <c r="D56" s="4">
         <v>22.86</v>
@@ -3973,21 +3982,21 @@
         <v>455</v>
       </c>
       <c r="J56" s="6">
-        <v>48.90321775466</v>
+        <v>48.903217754659998</v>
       </c>
       <c r="K56" s="3">
         <v>6.66845703125</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="3">
-        <v>34.9097340106964</v>
+        <v>34.909734010696397</v>
       </c>
       <c r="D57" s="4">
         <v>16.14</v>
@@ -4008,24 +4017,24 @@
         <v>607</v>
       </c>
       <c r="J57" s="6">
-        <v>68.1096053646601</v>
+        <v>68.109605364660098</v>
       </c>
       <c r="K57" s="3">
         <v>6.46826171875</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C58" s="3">
-        <v>36.7687759399414</v>
+        <v>36.768775939941399</v>
       </c>
       <c r="D58" s="4">
-        <v>36.12</v>
+        <v>36.119999999999997</v>
       </c>
       <c r="E58" s="5">
         <v>1</v>
@@ -4043,21 +4052,21 @@
         <v>623</v>
       </c>
       <c r="J58" s="6">
-        <v>62.02681761466</v>
+        <v>62.026817614659997</v>
       </c>
       <c r="K58" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C59" s="3">
-        <v>29.974161863327</v>
+        <v>29.974161863327001</v>
       </c>
       <c r="D59" s="4">
         <v>66.98</v>
@@ -4084,9 +4093,9 @@
         <v>7.23974609375</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>189</v>
@@ -4119,12 +4128,12 @@
         <v>5.74462890625</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C61" s="3">
         <v>29.0433700084686</v>
@@ -4148,21 +4157,21 @@
         <v>269</v>
       </c>
       <c r="J61" s="6">
-        <v>26.68241059466</v>
+        <v>26.682410594659999</v>
       </c>
       <c r="K61" s="3">
         <v>9.30517578125</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C62" s="3">
-        <v>32.3954005241394</v>
+        <v>32.395400524139397</v>
       </c>
       <c r="D62" s="4">
         <v>44.24</v>
@@ -4189,15 +4198,15 @@
         <v>8.45556640625</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C63" s="3">
-        <v>25.0538339614868</v>
+        <v>25.053833961486799</v>
       </c>
       <c r="D63" s="4">
         <v>12.87</v>
@@ -4218,24 +4227,24 @@
         <v>746</v>
       </c>
       <c r="J63" s="6">
-        <v>84.3653922946601</v>
+        <v>84.365392294660097</v>
       </c>
       <c r="K63" s="3">
         <v>5.71923828125</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C64" s="3">
-        <v>24.162394285202</v>
+        <v>24.162394285202001</v>
       </c>
       <c r="D64" s="4">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
@@ -4259,12 +4268,12 @@
         <v>6.63916015625</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C65" s="3">
         <v>25.125828742981</v>
@@ -4288,21 +4297,21 @@
         <v>698</v>
       </c>
       <c r="J65" s="6">
-        <v>77.0136334646601</v>
+        <v>77.013633464660103</v>
       </c>
       <c r="K65" s="3">
         <v>7.12255859375</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C66" s="3">
-        <v>24.3525810241699</v>
+        <v>24.352581024169901</v>
       </c>
       <c r="D66" s="4">
         <v>35</v>
@@ -4323,21 +4332,21 @@
         <v>260</v>
       </c>
       <c r="J66" s="6">
-        <v>29.39279054466</v>
+        <v>29.392790544659999</v>
       </c>
       <c r="K66" s="3">
         <v>7.85498046875</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="3">
-        <v>32.3683893680573</v>
+        <v>32.368389368057301</v>
       </c>
       <c r="D67" s="4">
         <v>26.96</v>
@@ -4358,24 +4367,24 @@
         <v>434</v>
       </c>
       <c r="J67" s="6">
-        <v>47.10043245466</v>
+        <v>47.100432454660002</v>
       </c>
       <c r="K67" s="3">
         <v>7.95751953125</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C68" s="3">
-        <v>28.567108631134</v>
+        <v>28.567108631134001</v>
       </c>
       <c r="D68" s="4">
-        <v>8.87</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="E68" s="5">
         <v>2</v>
@@ -4393,21 +4402,21 @@
         <v>767</v>
       </c>
       <c r="J68" s="6">
-        <v>88.0325734146601</v>
+        <v>88.032573414660106</v>
       </c>
       <c r="K68" s="3">
         <v>6.35400390625</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="3">
-        <v>26.305242061615</v>
+        <v>26.305242061615001</v>
       </c>
       <c r="D69" s="4">
         <v>16.12</v>
@@ -4428,21 +4437,21 @@
         <v>608</v>
       </c>
       <c r="J69" s="6">
-        <v>68.5599519046601</v>
+        <v>68.559951904660096</v>
       </c>
       <c r="K69" s="3">
         <v>5.69384765625</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="3">
-        <v>31.6435010433197</v>
+        <v>31.643501043319699</v>
       </c>
       <c r="D70" s="4">
         <v>26.96</v>
@@ -4469,15 +4478,15 @@
         <v>7.72314453125</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C71" s="3">
-        <v>24.7557883262634</v>
+        <v>24.755788326263399</v>
       </c>
       <c r="D71" s="4">
         <v>12.53</v>
@@ -4498,18 +4507,18 @@
         <v>439</v>
       </c>
       <c r="J71" s="6">
-        <v>48.98284823466</v>
+        <v>48.982848234659997</v>
       </c>
       <c r="K71" s="3">
         <v>5.26220703125</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C72" s="3">
         <v>25.1349182128906</v>
@@ -4539,15 +4548,15 @@
         <v>7.43017578125</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C73" s="3">
-        <v>24.5442223548889</v>
+        <v>24.544222354888898</v>
       </c>
       <c r="D73" s="4">
         <v>12.56</v>
@@ -4568,24 +4577,24 @@
         <v>390</v>
       </c>
       <c r="J73" s="6">
-        <v>44.5365469246601</v>
+        <v>44.536546924660101</v>
       </c>
       <c r="K73" s="3">
         <v>6.81494140625</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C74" s="3">
-        <v>24.9283194541931</v>
+        <v>24.928319454193101</v>
       </c>
       <c r="D74" s="4">
-        <v>34.62</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="E74" s="5">
         <v>1</v>
@@ -4603,18 +4612,18 @@
         <v>260</v>
       </c>
       <c r="J74" s="6">
-        <v>28.98926782466</v>
+        <v>28.989267824660001</v>
       </c>
       <c r="K74" s="3">
         <v>7.04931640625</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C75" s="3">
         <v>21.498687505722</v>
@@ -4638,24 +4647,24 @@
         <v>704</v>
       </c>
       <c r="J75" s="6">
-        <v>77.70274272466</v>
+        <v>77.702742724659998</v>
       </c>
       <c r="K75" s="3">
         <v>7.07861328125</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C76" s="3">
-        <v>21.1613485813141</v>
+        <v>21.161348581314101</v>
       </c>
       <c r="D76" s="4">
-        <v>17.58</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="E76" s="5">
         <v>1</v>
@@ -4673,13 +4682,13 @@
         <v>438</v>
       </c>
       <c r="J76" s="6">
-        <v>49.00482425466</v>
+        <v>49.004824254660001</v>
       </c>
       <c r="K76" s="3">
         <v>5.35107421875</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>141</v>
       </c>
@@ -4687,7 +4696,7 @@
         <v>45</v>
       </c>
       <c r="C77" s="3">
-        <v>23.6266474723816</v>
+        <v>23.626647472381599</v>
       </c>
       <c r="D77" s="4">
         <v>7.42</v>
@@ -4708,21 +4717,21 @@
         <v>512</v>
       </c>
       <c r="J77" s="6">
-        <v>57.1304880546601</v>
+        <v>57.130488054660098</v>
       </c>
       <c r="K77" s="3">
         <v>6.59521484375</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C78" s="3">
-        <v>19.4872846603394</v>
+        <v>19.487284660339402</v>
       </c>
       <c r="D78" s="4">
         <v>40</v>
@@ -4743,21 +4752,21 @@
         <v>270</v>
       </c>
       <c r="J78" s="6">
-        <v>29.24439386466</v>
+        <v>29.244393864660001</v>
       </c>
       <c r="K78" s="3">
         <v>6.27783203125</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C79" s="3">
-        <v>17.1937296390533</v>
+        <v>17.193729639053299</v>
       </c>
       <c r="D79" s="4">
         <v>7.08</v>
@@ -4778,21 +4787,21 @@
         <v>537</v>
       </c>
       <c r="J79" s="6">
-        <v>59.4416534646601</v>
+        <v>59.441653464660099</v>
       </c>
       <c r="K79" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C80" s="3">
-        <v>19.7432062625885</v>
+        <v>19.743206262588501</v>
       </c>
       <c r="D80" s="4">
         <v>22.43</v>
@@ -4813,21 +4822,21 @@
         <v>379</v>
       </c>
       <c r="J80" s="6">
-        <v>42.71470438466</v>
+        <v>42.714704384660003</v>
       </c>
       <c r="K80" s="3">
         <v>6.27783203125</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C81" s="3">
-        <v>19.1766877174377</v>
+        <v>19.176687717437702</v>
       </c>
       <c r="D81" s="4">
         <v>16.28</v>
@@ -4848,21 +4857,21 @@
         <v>639</v>
       </c>
       <c r="J81" s="6">
-        <v>65.3932203446601</v>
+        <v>65.393220344660094</v>
       </c>
       <c r="K81" s="3">
         <v>8.00146484375</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C82" s="3">
-        <v>22.2225587368011</v>
+        <v>22.222558736801101</v>
       </c>
       <c r="D82" s="4">
         <v>42.45</v>
@@ -4889,15 +4898,15 @@
         <v>7.86962890625</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C83" s="3">
-        <v>19.4077930450439</v>
+        <v>19.407793045043899</v>
       </c>
       <c r="D83" s="4">
         <v>10.65</v>
@@ -4918,21 +4927,21 @@
         <v>535</v>
       </c>
       <c r="J83" s="6">
-        <v>59.6093972446601</v>
+        <v>59.609397244660101</v>
       </c>
       <c r="K83" s="3">
         <v>5.90966796875</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C84" s="3">
-        <v>18.3385353088379</v>
+        <v>18.338535308837901</v>
       </c>
       <c r="D84" s="4">
         <v>38.36</v>
@@ -4953,15 +4962,15 @@
         <v>146</v>
       </c>
       <c r="J84" s="6">
-        <v>16.32460230466</v>
+        <v>16.324602304660001</v>
       </c>
       <c r="K84" s="3">
         <v>8.63134765625</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>5</v>
@@ -4988,21 +4997,21 @@
         <v>563</v>
       </c>
       <c r="J85" s="6">
-        <v>61.1198135646601</v>
+        <v>61.119813564660099</v>
       </c>
       <c r="K85" s="3">
         <v>5.65576171875</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C86" s="3">
-        <v>21.125360250473</v>
+        <v>21.125360250473001</v>
       </c>
       <c r="D86" s="4">
         <v>31.77</v>
@@ -5023,13 +5032,13 @@
         <v>299</v>
       </c>
       <c r="J86" s="6">
-        <v>33.20854804466</v>
+        <v>33.208548044659999</v>
       </c>
       <c r="K86" s="3">
         <v>6.07470703125</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>252</v>
       </c>
@@ -5037,7 +5046,7 @@
         <v>37</v>
       </c>
       <c r="C87" s="3">
-        <v>15.4034893512726</v>
+        <v>15.403489351272601</v>
       </c>
       <c r="D87" s="4">
         <v>18.91</v>
@@ -5058,15 +5067,15 @@
         <v>201</v>
       </c>
       <c r="J87" s="6">
-        <v>23.49676024466</v>
+        <v>23.496760244659999</v>
       </c>
       <c r="K87" s="3">
         <v>5.02099609375</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>195</v>
@@ -5075,7 +5084,7 @@
         <v>15.7861442565918</v>
       </c>
       <c r="D88" s="4">
-        <v>19.65</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="E88" s="5">
         <v>4</v>
@@ -5093,13 +5102,13 @@
         <v>346</v>
       </c>
       <c r="J88" s="6">
-        <v>37.18431084466</v>
+        <v>37.184310844659997</v>
       </c>
       <c r="K88" s="3">
         <v>6.27783203125</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>236</v>
       </c>
@@ -5107,7 +5116,7 @@
         <v>103</v>
       </c>
       <c r="C89" s="3">
-        <v>15.3871119022369</v>
+        <v>15.387111902236899</v>
       </c>
       <c r="D89" s="4">
         <v>44.9</v>
@@ -5134,9 +5143,9 @@
         <v>5.50341796875</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>105</v>
@@ -5163,15 +5172,15 @@
         <v>2413</v>
       </c>
       <c r="J90" s="6">
-        <v>260.568815704661</v>
+        <v>260.56881570466101</v>
       </c>
       <c r="K90" s="3">
         <v>5.43994140625</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>106</v>
@@ -5198,13 +5207,13 @@
         <v>282</v>
       </c>
       <c r="J91" s="6">
-        <v>31.41369499466</v>
+        <v>31.413694994659998</v>
       </c>
       <c r="K91" s="3">
         <v>4.90673828125</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>246</v>
       </c>
@@ -5212,7 +5221,7 @@
         <v>157</v>
       </c>
       <c r="C92" s="3">
-        <v>17.0569593906403</v>
+        <v>17.056959390640301</v>
       </c>
       <c r="D92" s="4">
         <v>19.09</v>
@@ -5233,21 +5242,21 @@
         <v>330</v>
       </c>
       <c r="J92" s="6">
-        <v>36.08316847466</v>
+        <v>36.083168474659999</v>
       </c>
       <c r="K92" s="3">
         <v>8.19189453125</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C93" s="3">
-        <v>17.14350938797</v>
+        <v>17.143509387969999</v>
       </c>
       <c r="D93" s="4">
         <v>29.8</v>
@@ -5268,18 +5277,18 @@
         <v>198</v>
       </c>
       <c r="J93" s="6">
-        <v>22.57371707466</v>
+        <v>22.573717074659999</v>
       </c>
       <c r="K93" s="3">
         <v>8.90966796875</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C94" s="3">
         <v>18.4532036781311</v>
@@ -5309,9 +5318,9 @@
         <v>6.12548828125</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>193</v>
@@ -5338,21 +5347,21 @@
         <v>5654</v>
       </c>
       <c r="J95" s="6">
-        <v>585.198720194676</v>
+        <v>585.19872019467596</v>
       </c>
       <c r="K95" s="3">
         <v>7.02001953125</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C96" s="3">
-        <v>23.9686894416809</v>
+        <v>23.968689441680901</v>
       </c>
       <c r="D96" s="4">
         <v>17.32</v>
@@ -5373,13 +5382,13 @@
         <v>231</v>
       </c>
       <c r="J96" s="6">
-        <v>24.39380627466</v>
+        <v>24.393806274660001</v>
       </c>
       <c r="K96" s="3">
         <v>7.18115234375</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>231</v>
       </c>
@@ -5387,7 +5396,7 @@
         <v>219</v>
       </c>
       <c r="C97" s="3">
-        <v>18.4152536392212</v>
+        <v>18.415253639221199</v>
       </c>
       <c r="D97" s="4">
         <v>30</v>
@@ -5408,21 +5417,21 @@
         <v>210</v>
       </c>
       <c r="J97" s="6">
-        <v>22.57626989466</v>
+        <v>22.576269894660001</v>
       </c>
       <c r="K97" s="3">
         <v>4.90673828125</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C98" s="3">
-        <v>16.4519100189209</v>
+        <v>16.451910018920898</v>
       </c>
       <c r="D98" s="4">
         <v>22.04</v>
@@ -5443,21 +5452,21 @@
         <v>186</v>
       </c>
       <c r="J98" s="6">
-        <v>20.10304940466</v>
+        <v>20.103049404659998</v>
       </c>
       <c r="K98" s="3">
         <v>5.27490234375</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C99" s="3">
-        <v>15.2442429065704</v>
+        <v>15.244242906570401</v>
       </c>
       <c r="D99" s="4">
         <v>46.03</v>
@@ -5478,18 +5487,18 @@
         <v>63</v>
       </c>
       <c r="J99" s="6">
-        <v>7.19886334466</v>
+        <v>7.1988633446600003</v>
       </c>
       <c r="K99" s="3">
         <v>5.37646484375</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C100" s="3">
         <v>13.688010931015</v>
@@ -5513,21 +5522,21 @@
         <v>534</v>
       </c>
       <c r="J100" s="6">
-        <v>58.9594354746601</v>
+        <v>58.959435474660097</v>
       </c>
       <c r="K100" s="3">
         <v>5.14794921875</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C101" s="3">
-        <v>13.561897277832</v>
+        <v>13.561897277831999</v>
       </c>
       <c r="D101" s="4">
         <v>4.45</v>
@@ -5548,15 +5557,15 @@
         <v>517</v>
       </c>
       <c r="J101" s="6">
-        <v>56.96679458466</v>
+        <v>56.966794584660001</v>
       </c>
       <c r="K101" s="3">
         <v>6.84423828125</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>76</v>
@@ -5583,21 +5592,21 @@
         <v>845</v>
       </c>
       <c r="J102" s="6">
-        <v>88.1686771246603</v>
+        <v>88.168677124660306</v>
       </c>
       <c r="K102" s="3">
         <v>4.93212890625</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C103" s="3">
-        <v>10.3922216892242</v>
+        <v>10.392221689224201</v>
       </c>
       <c r="D103" s="4">
         <v>12.89</v>
@@ -5618,13 +5627,13 @@
         <v>349</v>
       </c>
       <c r="J103" s="6">
-        <v>38.13009128466</v>
+        <v>38.130091284659997</v>
       </c>
       <c r="K103" s="3">
         <v>7.38623046875</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>247</v>
       </c>
@@ -5632,7 +5641,7 @@
         <v>158</v>
       </c>
       <c r="C104" s="3">
-        <v>10.9650382995605</v>
+        <v>10.965038299560501</v>
       </c>
       <c r="D104" s="4">
         <v>15.95</v>
@@ -5653,15 +5662,15 @@
         <v>326</v>
       </c>
       <c r="J104" s="6">
-        <v>35.87775764466</v>
+        <v>35.877757644660001</v>
       </c>
       <c r="K104" s="3">
         <v>7.59130859375</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>166</v>
@@ -5688,24 +5697,24 @@
         <v>121</v>
       </c>
       <c r="J105" s="6">
-        <v>13.37159317466</v>
+        <v>13.371593174659999</v>
       </c>
       <c r="K105" s="3">
         <v>5.24951171875</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C106" s="3">
-        <v>13.9902718067169</v>
+        <v>13.990271806716899</v>
       </c>
       <c r="D106" s="4">
-        <v>8.46</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="E106" s="5">
         <v>1</v>
@@ -5723,18 +5732,18 @@
         <v>390</v>
       </c>
       <c r="J106" s="6">
-        <v>44.8254781746601</v>
+        <v>44.825478174660098</v>
       </c>
       <c r="K106" s="3">
         <v>6.21435546875</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C107" s="3">
         <v>11.9953300952911</v>
@@ -5758,21 +5767,21 @@
         <v>696</v>
       </c>
       <c r="J107" s="6">
-        <v>76.91846236466</v>
+        <v>76.918462364660002</v>
       </c>
       <c r="K107" s="3">
         <v>7.13720703125</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C108" s="3">
-        <v>17.6594099998474</v>
+        <v>17.659409999847401</v>
       </c>
       <c r="D108" s="4">
         <v>18.43</v>
@@ -5793,21 +5802,21 @@
         <v>434</v>
       </c>
       <c r="J108" s="6">
-        <v>47.09824743466</v>
+        <v>47.098247434660003</v>
       </c>
       <c r="K108" s="3">
         <v>6.56591796875</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C109" s="3">
-        <v>13.6339130401611</v>
+        <v>13.633913040161101</v>
       </c>
       <c r="D109" s="4">
         <v>24.47</v>
@@ -5828,13 +5837,13 @@
         <v>188</v>
       </c>
       <c r="J109" s="6">
-        <v>20.57652256466</v>
+        <v>20.576522564659999</v>
       </c>
       <c r="K109" s="3">
         <v>7.59130859375</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>204</v>
       </c>
@@ -5863,15 +5872,15 @@
         <v>146</v>
       </c>
       <c r="J110" s="6">
-        <v>16.36748206466</v>
+        <v>16.367482064659999</v>
       </c>
       <c r="K110" s="3">
         <v>8.64599609375</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>48</v>
@@ -5898,18 +5907,18 @@
         <v>168</v>
       </c>
       <c r="J111" s="6">
-        <v>18.20908720466</v>
+        <v>18.209087204660001</v>
       </c>
       <c r="K111" s="3">
         <v>7.44482421875</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C112" s="3">
         <v>11.2091073989868</v>
@@ -5933,21 +5942,21 @@
         <v>398</v>
       </c>
       <c r="J112" s="6">
-        <v>42.9543988846601</v>
+        <v>42.954398884660101</v>
       </c>
       <c r="K112" s="3">
         <v>5.32568359375</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C113" s="3">
-        <v>11.0822026729584</v>
+        <v>11.082202672958401</v>
       </c>
       <c r="D113" s="4">
         <v>7.16</v>
@@ -5968,13 +5977,13 @@
         <v>447</v>
       </c>
       <c r="J113" s="6">
-        <v>48.9573778246601</v>
+        <v>48.957377824660099</v>
       </c>
       <c r="K113" s="3">
         <v>5.84619140625</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>15</v>
       </c>
@@ -5982,7 +5991,7 @@
         <v>114</v>
       </c>
       <c r="C114" s="3">
-        <v>11.100727558136</v>
+        <v>11.100727558136001</v>
       </c>
       <c r="D114" s="4">
         <v>12.12</v>
@@ -6009,9 +6018,9 @@
         <v>5.68115234375</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>38</v>
@@ -6020,7 +6029,7 @@
         <v>7.51206278800964</v>
       </c>
       <c r="D115" s="4">
-        <v>9.45</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="E115" s="5">
         <v>1</v>
@@ -6044,15 +6053,15 @@
         <v>5.10986328125</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C116" s="3">
-        <v>5.72300171852112</v>
+        <v>5.7230017185211199</v>
       </c>
       <c r="D116" s="4">
         <v>12.53</v>
@@ -6073,21 +6082,21 @@
         <v>455</v>
       </c>
       <c r="J116" s="6">
-        <v>50.7811716446601</v>
+        <v>50.781171644660098</v>
       </c>
       <c r="K116" s="3">
         <v>5.64306640625</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C117" s="3">
-        <v>8.28157663345337</v>
+        <v>8.2815766334533691</v>
       </c>
       <c r="D117" s="4">
         <v>7.16</v>
@@ -6108,21 +6117,21 @@
         <v>335</v>
       </c>
       <c r="J117" s="6">
-        <v>37.36903820466</v>
+        <v>37.369038204660001</v>
       </c>
       <c r="K117" s="3">
         <v>8.07470703125</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C118" s="3">
-        <v>10.4367647171021</v>
+        <v>10.436764717102101</v>
       </c>
       <c r="D118" s="4">
         <v>12.03</v>
@@ -6143,21 +6152,21 @@
         <v>374</v>
       </c>
       <c r="J118" s="6">
-        <v>42.50198280466</v>
+        <v>42.501982804660003</v>
       </c>
       <c r="K118" s="3">
         <v>7.06396484375</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C119" s="3">
-        <v>10.1623601913452</v>
+        <v>10.162360191345201</v>
       </c>
       <c r="D119" s="4">
         <v>19.53</v>
@@ -6178,21 +6187,21 @@
         <v>128</v>
       </c>
       <c r="J119" s="6">
-        <v>14.16779357466</v>
+        <v>14.167793574659999</v>
       </c>
       <c r="K119" s="3">
         <v>6.48095703125</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C120" s="3">
-        <v>11.4751508235931</v>
+        <v>11.475150823593101</v>
       </c>
       <c r="D120" s="4">
         <v>6.65</v>
@@ -6213,15 +6222,15 @@
         <v>526</v>
       </c>
       <c r="J120" s="6">
-        <v>57.5247133146601</v>
+        <v>57.524713314660097</v>
       </c>
       <c r="K120" s="3">
         <v>5.97314453125</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>89</v>
@@ -6248,21 +6257,21 @@
         <v>344</v>
       </c>
       <c r="J121" s="6">
-        <v>37.17169005466</v>
+        <v>37.171690054659997</v>
       </c>
       <c r="K121" s="3">
         <v>5.82080078125</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C122" s="3">
-        <v>10.645316362381</v>
+        <v>10.645316362380999</v>
       </c>
       <c r="D122" s="4">
         <v>12.96</v>
@@ -6283,21 +6292,21 @@
         <v>270</v>
       </c>
       <c r="J122" s="6">
-        <v>29.46960124466</v>
+        <v>29.469601244660002</v>
       </c>
       <c r="K122" s="3">
         <v>6.90283203125</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C123" s="3">
-        <v>10.339485168457</v>
+        <v>10.339485168456999</v>
       </c>
       <c r="D123" s="4">
         <v>11.3</v>
@@ -6318,15 +6327,15 @@
         <v>584</v>
       </c>
       <c r="J123" s="6">
-        <v>58.79169631466</v>
+        <v>58.791696314660001</v>
       </c>
       <c r="K123" s="3">
         <v>5.21142578125</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>174</v>
@@ -6353,21 +6362,21 @@
         <v>262</v>
       </c>
       <c r="J124" s="6">
-        <v>28.87087987466</v>
+        <v>28.870879874660002</v>
       </c>
       <c r="K124" s="3">
         <v>4.83056640625</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C125" s="3">
-        <v>8.78285074234009</v>
+        <v>8.7828507423400897</v>
       </c>
       <c r="D125" s="4">
         <v>19.89</v>
@@ -6388,21 +6397,21 @@
         <v>176</v>
       </c>
       <c r="J125" s="6">
-        <v>19.23781531466</v>
+        <v>19.237815314660001</v>
       </c>
       <c r="K125" s="3">
         <v>5.57958984375</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C126" s="3">
-        <v>11.7949864864349</v>
+        <v>11.794986486434899</v>
       </c>
       <c r="D126" s="4">
         <v>8.42</v>
@@ -6429,7 +6438,7 @@
         <v>7.79638671875</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>13</v>
       </c>
@@ -6437,7 +6446,7 @@
         <v>161</v>
       </c>
       <c r="C127" s="3">
-        <v>8.9827401638031</v>
+        <v>8.9827401638031006</v>
       </c>
       <c r="D127" s="4">
         <v>22.41</v>
@@ -6464,12 +6473,12 @@
         <v>8.16259765625</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C128" s="3">
         <v>12.7563314437866</v>
@@ -6493,21 +6502,21 @@
         <v>153</v>
       </c>
       <c r="J128" s="6">
-        <v>15.88190353466</v>
+        <v>15.881903534659999</v>
       </c>
       <c r="K128" s="3">
         <v>6.52197265625</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C129" s="3">
-        <v>8.12151145935059</v>
+        <v>8.1215114593505895</v>
       </c>
       <c r="D129" s="4">
         <v>8.35</v>
@@ -6528,13 +6537,13 @@
         <v>503</v>
       </c>
       <c r="J129" s="6">
-        <v>56.5750738746601</v>
+        <v>56.575073874660099</v>
       </c>
       <c r="K129" s="3">
         <v>5.42724609375</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>202</v>
       </c>
@@ -6542,7 +6551,7 @@
         <v>183</v>
       </c>
       <c r="C130" s="3">
-        <v>9.31622576713562</v>
+        <v>9.3162257671356201</v>
       </c>
       <c r="D130" s="4">
         <v>1.3</v>
@@ -6569,9 +6578,9 @@
         <v>5.89697265625</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>59</v>
@@ -6598,21 +6607,21 @@
         <v>150</v>
       </c>
       <c r="J131" s="6">
-        <v>16.42430532466</v>
+        <v>16.424305324660001</v>
       </c>
       <c r="K131" s="3">
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C132" s="3">
-        <v>7.94421625137329</v>
+        <v>7.9442162513732901</v>
       </c>
       <c r="D132" s="4">
         <v>29.6</v>
@@ -6639,15 +6648,15 @@
         <v>7.66455078125</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C133" s="3">
-        <v>8.85844898223877</v>
+        <v>8.8584489822387695</v>
       </c>
       <c r="D133" s="4">
         <v>12.22</v>
@@ -6668,21 +6677,21 @@
         <v>221</v>
       </c>
       <c r="J133" s="6">
-        <v>23.99403516466</v>
+        <v>23.994035164660001</v>
       </c>
       <c r="K133" s="3">
         <v>7.09326171875</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C134" s="3">
-        <v>12.5035469532013</v>
+        <v>12.503546953201299</v>
       </c>
       <c r="D134" s="4">
         <v>9.25</v>
@@ -6703,15 +6712,15 @@
         <v>411</v>
       </c>
       <c r="J134" s="6">
-        <v>46.20827312466</v>
+        <v>46.208273124660003</v>
       </c>
       <c r="K134" s="3">
         <v>5.98583984375</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>56</v>
@@ -6738,21 +6747,21 @@
         <v>247</v>
       </c>
       <c r="J135" s="6">
-        <v>26.40583207466</v>
+        <v>26.405832074660001</v>
       </c>
       <c r="K135" s="3">
         <v>4.83056640625</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C136" s="3">
-        <v>9.23927712440491</v>
+        <v>9.2392771244049108</v>
       </c>
       <c r="D136" s="4">
         <v>22.67</v>
@@ -6773,24 +6782,24 @@
         <v>150</v>
       </c>
       <c r="J136" s="6">
-        <v>16.33306626466</v>
+        <v>16.333066264660001</v>
       </c>
       <c r="K136" s="3">
         <v>5.27490234375</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C137" s="3">
         <v>6.43249559402466</v>
       </c>
       <c r="D137" s="4">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E137" s="5">
         <v>1</v>
@@ -6814,15 +6823,15 @@
         <v>8.99755859375</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C138" s="3">
-        <v>12.1940062046051</v>
+        <v>12.194006204605101</v>
       </c>
       <c r="D138" s="4">
         <v>6.69</v>
@@ -6843,21 +6852,21 @@
         <v>508</v>
       </c>
       <c r="J138" s="6">
-        <v>57.64435765466</v>
+        <v>57.644357654659999</v>
       </c>
       <c r="K138" s="3">
         <v>6.59521484375</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C139" s="3">
-        <v>6.53735184669495</v>
+        <v>6.5373518466949498</v>
       </c>
       <c r="D139" s="4">
         <v>4.93</v>
@@ -6878,13 +6887,13 @@
         <v>832</v>
       </c>
       <c r="J139" s="6">
-        <v>92.1619295646601</v>
+        <v>92.161929564660099</v>
       </c>
       <c r="K139" s="3">
         <v>5.13525390625</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>260</v>
       </c>
@@ -6892,7 +6901,7 @@
         <v>94</v>
       </c>
       <c r="C140" s="3">
-        <v>6.74355530738831</v>
+        <v>6.7435553073883101</v>
       </c>
       <c r="D140" s="4">
         <v>5.31</v>
@@ -6913,13 +6922,13 @@
         <v>527</v>
       </c>
       <c r="J140" s="6">
-        <v>59.7187578746601</v>
+        <v>59.718757874660099</v>
       </c>
       <c r="K140" s="3">
         <v>7.38623046875</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>23</v>
       </c>
@@ -6927,7 +6936,7 @@
         <v>77</v>
       </c>
       <c r="C141" s="3">
-        <v>6.22712302207947</v>
+        <v>6.2271230220794704</v>
       </c>
       <c r="D141" s="4">
         <v>2.74</v>
@@ -6954,7 +6963,7 @@
         <v>6.36669921875</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>261</v>
       </c>
@@ -6989,18 +6998,18 @@
         <v>7.50341796875</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C143" s="3">
-        <v>6.68490028381348</v>
+        <v>6.6849002838134801</v>
       </c>
       <c r="D143" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E143" s="5">
         <v>1</v>
@@ -7024,9 +7033,9 @@
         <v>7.59130859375</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>122</v>
@@ -7059,7 +7068,7 @@
         <v>5.97314453125</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>258</v>
       </c>
@@ -7067,7 +7076,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="3">
-        <v>5.83434557914734</v>
+        <v>5.8343455791473398</v>
       </c>
       <c r="D145" s="4">
         <v>9.74</v>
@@ -7088,21 +7097,21 @@
         <v>462</v>
       </c>
       <c r="J145" s="6">
-        <v>51.64327527466</v>
+        <v>51.643275274659999</v>
       </c>
       <c r="K145" s="3">
         <v>7.02001953125</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C146" s="3">
-        <v>6.43837451934814</v>
+        <v>6.4383745193481401</v>
       </c>
       <c r="D146" s="4">
         <v>3.87</v>
@@ -7123,24 +7132,24 @@
         <v>750</v>
       </c>
       <c r="J146" s="6">
-        <v>85.4598751046602</v>
+        <v>85.459875104660199</v>
       </c>
       <c r="K146" s="3">
         <v>5.73193359375</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C147" s="3">
-        <v>9.28065133094788</v>
+        <v>9.2806513309478795</v>
       </c>
       <c r="D147" s="4">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="E147" s="5">
         <v>1</v>
@@ -7158,24 +7167,24 @@
         <v>196</v>
       </c>
       <c r="J147" s="6">
-        <v>21.71669304466</v>
+        <v>21.716693044660001</v>
       </c>
       <c r="K147" s="3">
         <v>8.58740234375</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C148" s="3">
-        <v>5.66479754447937</v>
+        <v>5.6647975444793701</v>
       </c>
       <c r="D148" s="4">
-        <v>18.49</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="E148" s="5">
         <v>3</v>
@@ -7193,18 +7202,18 @@
         <v>146</v>
       </c>
       <c r="J148" s="6">
-        <v>16.56179653466</v>
+        <v>16.561796534660001</v>
       </c>
       <c r="K148" s="3">
         <v>8.04541015625</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C149" s="3">
         <v>6.34031105041504</v>
@@ -7228,21 +7237,21 @@
         <v>147</v>
       </c>
       <c r="J149" s="6">
-        <v>15.87704777466</v>
+        <v>15.877047774659999</v>
       </c>
       <c r="K149" s="3">
         <v>5.75732421875</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C150" s="3">
-        <v>8.22289419174194</v>
+        <v>8.2228941917419398</v>
       </c>
       <c r="D150" s="4">
         <v>6.24</v>
@@ -7263,18 +7272,18 @@
         <v>513</v>
       </c>
       <c r="J150" s="6">
-        <v>56.9750668346601</v>
+        <v>56.975066834660097</v>
       </c>
       <c r="K150" s="3">
         <v>5.55419921875</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C151" s="3">
         <v>4.28593182563782</v>
@@ -7298,13 +7307,13 @@
         <v>674</v>
       </c>
       <c r="J151" s="6">
-        <v>75.5768183646601</v>
+        <v>75.576818364660099</v>
       </c>
       <c r="K151" s="3">
         <v>6.03662109375</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>242</v>
       </c>
@@ -7312,7 +7321,7 @@
         <v>150</v>
       </c>
       <c r="C152" s="3">
-        <v>7.78858041763306</v>
+        <v>7.7885804176330602</v>
       </c>
       <c r="D152" s="4">
         <v>13.68</v>
@@ -7333,13 +7342,13 @@
         <v>117</v>
       </c>
       <c r="J152" s="6">
-        <v>12.96687142466</v>
+        <v>12.966871424660001</v>
       </c>
       <c r="K152" s="3">
         <v>8.83642578125</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>8</v>
       </c>
@@ -7347,10 +7356,10 @@
         <v>164</v>
       </c>
       <c r="C153" s="3">
-        <v>7.81134438514709</v>
+        <v>7.8113443851470903</v>
       </c>
       <c r="D153" s="4">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="E153" s="5">
         <v>8</v>
@@ -7374,7 +7383,7 @@
         <v>5.93505859375</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>240</v>
       </c>
@@ -7403,13 +7412,13 @@
         <v>116</v>
       </c>
       <c r="J154" s="6">
-        <v>12.54926737466</v>
+        <v>12.549267374659999</v>
       </c>
       <c r="K154" s="3">
         <v>4.95751953125</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>227</v>
       </c>
@@ -7417,10 +7426,10 @@
         <v>57</v>
       </c>
       <c r="C155" s="3">
-        <v>9.84494495391846</v>
+        <v>9.8449449539184606</v>
       </c>
       <c r="D155" s="4">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="E155" s="5">
         <v>1</v>
@@ -7438,24 +7447,24 @@
         <v>246</v>
       </c>
       <c r="J155" s="6">
-        <v>25.94267704466</v>
+        <v>25.942677044660002</v>
       </c>
       <c r="K155" s="3">
         <v>4.89404296875</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C156" s="3">
-        <v>5.15546250343323</v>
+        <v>5.1554625034332302</v>
       </c>
       <c r="D156" s="4">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="E156" s="5">
         <v>4</v>
@@ -7473,13 +7482,13 @@
         <v>1193</v>
       </c>
       <c r="J156" s="6">
-        <v>137.73278667466</v>
+        <v>137.73278667465999</v>
       </c>
       <c r="K156" s="3">
         <v>5.64306640625</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>19</v>
       </c>
@@ -7487,7 +7496,7 @@
         <v>27</v>
       </c>
       <c r="C157" s="3">
-        <v>7.51079201698303</v>
+        <v>7.5107920169830296</v>
       </c>
       <c r="D157" s="4">
         <v>5</v>
@@ -7508,13 +7517,13 @@
         <v>380</v>
       </c>
       <c r="J157" s="6">
-        <v>42.08341115466</v>
+        <v>42.083411154659998</v>
       </c>
       <c r="K157" s="3">
         <v>5.03369140625</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>222</v>
       </c>
@@ -7522,7 +7531,7 @@
         <v>92</v>
       </c>
       <c r="C158" s="3">
-        <v>5.96027874946594</v>
+        <v>5.9602787494659397</v>
       </c>
       <c r="D158" s="4">
         <v>5.31</v>
@@ -7543,21 +7552,21 @@
         <v>527</v>
       </c>
       <c r="J158" s="6">
-        <v>59.8777542146601</v>
+        <v>59.877754214660101</v>
       </c>
       <c r="K158" s="3">
         <v>7.28369140625</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C159" s="3">
-        <v>6.32469820976257</v>
+        <v>6.3246982097625697</v>
       </c>
       <c r="D159" s="4">
         <v>6.08</v>
@@ -7578,21 +7587,21 @@
         <v>444</v>
       </c>
       <c r="J159" s="6">
-        <v>50.21222894466</v>
+        <v>50.212228944659998</v>
       </c>
       <c r="K159" s="3">
         <v>5.83349609375</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C160" s="3">
-        <v>7.50377106666565</v>
+        <v>7.5037710666656503</v>
       </c>
       <c r="D160" s="4">
         <v>4.3</v>
@@ -7619,15 +7628,15 @@
         <v>5.12255859375</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C161" s="3">
-        <v>6.75165247917175</v>
+        <v>6.7516524791717503</v>
       </c>
       <c r="D161" s="4">
         <v>7.42</v>
@@ -7648,21 +7657,21 @@
         <v>337</v>
       </c>
       <c r="J161" s="6">
-        <v>36.33728147466</v>
+        <v>36.337281474660003</v>
       </c>
       <c r="K161" s="3">
         <v>6.94677734375</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C162" s="3">
-        <v>5.70188021659851</v>
+        <v>5.7018802165985099</v>
       </c>
       <c r="D162" s="4">
         <v>6.91</v>
@@ -7683,21 +7692,21 @@
         <v>333</v>
       </c>
       <c r="J162" s="6">
-        <v>35.76130448466</v>
+        <v>35.761304484660002</v>
       </c>
       <c r="K162" s="3">
         <v>8.11865234375</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C163" s="3">
-        <v>5.18335676193237</v>
+        <v>5.1833567619323704</v>
       </c>
       <c r="D163" s="4">
         <v>6.78</v>
@@ -7718,15 +7727,15 @@
         <v>339</v>
       </c>
       <c r="J163" s="6">
-        <v>36.16166743466</v>
+        <v>36.161667434660004</v>
       </c>
       <c r="K163" s="3">
         <v>7.85498046875</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>140</v>
@@ -7753,21 +7762,21 @@
         <v>331</v>
       </c>
       <c r="J164" s="6">
-        <v>35.61249501466</v>
+        <v>35.612495014659999</v>
       </c>
       <c r="K164" s="3">
         <v>8.20654296875</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C165" s="3">
-        <v>4.77270936965942</v>
+        <v>4.7727093696594203</v>
       </c>
       <c r="D165" s="4">
         <v>6.52</v>
@@ -7788,21 +7797,21 @@
         <v>138</v>
       </c>
       <c r="J165" s="6">
-        <v>16.64726970466</v>
+        <v>16.647269704660001</v>
       </c>
       <c r="K165" s="3">
         <v>5.69384765625</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C166" s="3">
-        <v>5.43050646781921</v>
+        <v>5.4305064678192103</v>
       </c>
       <c r="D166" s="4">
         <v>18.71</v>
@@ -7823,21 +7832,21 @@
         <v>171</v>
       </c>
       <c r="J166" s="6">
-        <v>18.51308086466</v>
+        <v>18.513080864660001</v>
       </c>
       <c r="K166" s="3">
         <v>6.46826171875</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C167" s="3">
-        <v>7.28886938095093</v>
+        <v>7.2888693809509304</v>
       </c>
       <c r="D167" s="4">
         <v>21.68</v>
@@ -7858,21 +7867,21 @@
         <v>143</v>
       </c>
       <c r="J167" s="6">
-        <v>15.77156375466</v>
+        <v>15.771563754660001</v>
       </c>
       <c r="K167" s="3">
         <v>5.41455078125</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C168" s="3">
-        <v>5.84727835655212</v>
+        <v>5.8472783565521196</v>
       </c>
       <c r="D168" s="4">
         <v>4.79</v>
@@ -7893,21 +7902,21 @@
         <v>584</v>
       </c>
       <c r="J168" s="6">
-        <v>65.2252724946601</v>
+        <v>65.225272494660103</v>
       </c>
       <c r="K168" s="3">
         <v>5.33837890625</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C169" s="3">
-        <v>6.30384802818298</v>
+        <v>6.3038480281829798</v>
       </c>
       <c r="D169" s="4">
         <v>3.85</v>
@@ -7928,13 +7937,13 @@
         <v>493</v>
       </c>
       <c r="J169" s="6">
-        <v>54.6658062446601</v>
+        <v>54.665806244660097</v>
       </c>
       <c r="K169" s="3">
         <v>5.75732421875</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>210</v>
       </c>
@@ -7942,7 +7951,7 @@
         <v>91</v>
       </c>
       <c r="C170" s="3">
-        <v>8.57398700714111</v>
+        <v>8.5739870071411097</v>
       </c>
       <c r="D170" s="4">
         <v>7.05</v>
@@ -7963,21 +7972,21 @@
         <v>482</v>
       </c>
       <c r="J170" s="6">
-        <v>54.83012892466</v>
+        <v>54.830128924660002</v>
       </c>
       <c r="K170" s="3">
         <v>6.45556640625</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C171" s="3">
-        <v>5.32366704940796</v>
+        <v>5.3236670494079599</v>
       </c>
       <c r="D171" s="4">
         <v>6.44</v>
@@ -7998,21 +8007,21 @@
         <v>202</v>
       </c>
       <c r="J171" s="6">
-        <v>20.68219082466</v>
+        <v>20.682190824660001</v>
       </c>
       <c r="K171" s="3">
         <v>4.88134765625</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C172" s="3">
-        <v>5.78096032142639</v>
+        <v>5.7809603214263898</v>
       </c>
       <c r="D172" s="4">
         <v>6.85</v>
@@ -8033,21 +8042,21 @@
         <v>336</v>
       </c>
       <c r="J172" s="6">
-        <v>35.93633879466</v>
+        <v>35.936338794660003</v>
       </c>
       <c r="K172" s="3">
         <v>5.55419921875</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C173" s="3">
-        <v>5.38578367233276</v>
+        <v>5.3857836723327601</v>
       </c>
       <c r="D173" s="4">
         <v>5.65</v>
@@ -8068,13 +8077,13 @@
         <v>336</v>
       </c>
       <c r="J173" s="6">
-        <v>35.84836904466</v>
+        <v>35.848369044659997</v>
       </c>
       <c r="K173" s="3">
         <v>5.57958984375</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>61</v>
       </c>
@@ -8082,7 +8091,7 @@
         <v>136</v>
       </c>
       <c r="C174" s="3">
-        <v>6.17872357368469</v>
+        <v>6.1787235736846897</v>
       </c>
       <c r="D174" s="4">
         <v>6.95</v>
@@ -8103,21 +8112,21 @@
         <v>331</v>
       </c>
       <c r="J174" s="6">
-        <v>35.51830309466</v>
+        <v>35.518303094659998</v>
       </c>
       <c r="K174" s="3">
         <v>7.10791015625</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C175" s="3">
-        <v>5.36311769485474</v>
+        <v>5.3631176948547399</v>
       </c>
       <c r="D175" s="4">
         <v>6.91</v>
@@ -8138,21 +8147,21 @@
         <v>333</v>
       </c>
       <c r="J175" s="6">
-        <v>35.64016578466</v>
+        <v>35.640165784659999</v>
       </c>
       <c r="K175" s="3">
         <v>6.56591796875</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C176" s="3">
-        <v>5.31161308288574</v>
+        <v>5.3116130828857404</v>
       </c>
       <c r="D176" s="4">
         <v>4.04</v>
@@ -8173,21 +8182,21 @@
         <v>545</v>
       </c>
       <c r="J176" s="6">
-        <v>58.62202430466</v>
+        <v>58.622024304660002</v>
       </c>
       <c r="K176" s="3">
         <v>6.48095703125</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C177" s="3">
-        <v>6.7139585018158</v>
+        <v>6.7139585018158003</v>
       </c>
       <c r="D177" s="4">
         <v>12.74</v>
@@ -8208,21 +8217,21 @@
         <v>157</v>
       </c>
       <c r="J177" s="6">
-        <v>17.23069356466</v>
+        <v>17.230693564660001</v>
       </c>
       <c r="K177" s="3">
         <v>5.14794921875</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C178" s="3">
-        <v>5.10913753509521</v>
+        <v>5.1091375350952104</v>
       </c>
       <c r="D178" s="4">
         <v>2.52</v>
@@ -8243,13 +8252,13 @@
         <v>318</v>
       </c>
       <c r="J178" s="6">
-        <v>34.36211747466</v>
+        <v>34.362117474660003</v>
       </c>
       <c r="K178" s="3">
         <v>10.65283203125</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>250</v>
       </c>
@@ -8257,7 +8266,7 @@
         <v>180</v>
       </c>
       <c r="C179" s="3">
-        <v>2.70169591903687</v>
+        <v>2.7016959190368701</v>
       </c>
       <c r="D179" s="4">
         <v>2.88</v>
@@ -8278,13 +8287,13 @@
         <v>347</v>
       </c>
       <c r="J179" s="6">
-        <v>38.15411290466</v>
+        <v>38.154112904660003</v>
       </c>
       <c r="K179" s="3">
         <v>6.94677734375</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>233</v>
       </c>
@@ -8292,7 +8301,7 @@
         <v>40</v>
       </c>
       <c r="C180" s="3">
-        <v>3.26472663879395</v>
+        <v>3.2647266387939502</v>
       </c>
       <c r="D180" s="4">
         <v>3.78</v>
@@ -8313,24 +8322,24 @@
         <v>423</v>
       </c>
       <c r="J180" s="6">
-        <v>47.62053863466</v>
+        <v>47.620538634660001</v>
       </c>
       <c r="K180" s="3">
         <v>5.51611328125</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C181" s="3">
-        <v>3.35038614273071</v>
+        <v>3.3503861427307098</v>
       </c>
       <c r="D181" s="4">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E181" s="5">
         <v>1</v>
@@ -8348,21 +8357,21 @@
         <v>455</v>
       </c>
       <c r="J181" s="6">
-        <v>52.5280221246601</v>
+        <v>52.528022124660097</v>
       </c>
       <c r="K181" s="3">
         <v>6.26513671875</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C182" s="3">
-        <v>2.06707453727722</v>
+        <v>2.0670745372772199</v>
       </c>
       <c r="D182" s="4">
         <v>6.77</v>
@@ -8383,13 +8392,13 @@
         <v>133</v>
       </c>
       <c r="J182" s="6">
-        <v>14.84872758466</v>
+        <v>14.848727584660001</v>
       </c>
       <c r="K182" s="3">
         <v>6.80029296875</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>249</v>
       </c>
@@ -8418,13 +8427,13 @@
         <v>866</v>
       </c>
       <c r="J183" s="6">
-        <v>94.9144191846604</v>
+        <v>94.914419184660403</v>
       </c>
       <c r="K183" s="3">
         <v>6.01123046875</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>213</v>
       </c>
@@ -8453,21 +8462,21 @@
         <v>188</v>
       </c>
       <c r="J184" s="6">
-        <v>20.99433410466</v>
+        <v>20.994334104659998</v>
       </c>
       <c r="K184" s="3">
         <v>5.13525390625</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C185" s="3">
-        <v>3.75896644592285</v>
+        <v>3.7589664459228498</v>
       </c>
       <c r="D185" s="4">
         <v>2.67</v>
@@ -8494,15 +8503,15 @@
         <v>10.03759765625</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C186" s="3">
-        <v>2.87295961380005</v>
+        <v>2.8729596138000502</v>
       </c>
       <c r="D186" s="4">
         <v>8.4</v>
@@ -8523,21 +8532,21 @@
         <v>381</v>
       </c>
       <c r="J186" s="6">
-        <v>43.07390000466</v>
+        <v>43.073900004659997</v>
       </c>
       <c r="K186" s="3">
         <v>7.25439453125</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C187" s="3">
-        <v>2.40153217315674</v>
+        <v>2.4015321731567401</v>
       </c>
       <c r="D187" s="4">
         <v>1.89</v>
@@ -8564,15 +8573,15 @@
         <v>5.99853515625</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C188" s="3">
-        <v>2.53924179077148</v>
+        <v>2.5392417907714799</v>
       </c>
       <c r="D188" s="4">
         <v>15.23</v>
@@ -8599,15 +8608,15 @@
         <v>7.64990234375</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C189" s="3">
-        <v>3.75220561027527</v>
+        <v>3.7522056102752699</v>
       </c>
       <c r="D189" s="4">
         <v>5.53</v>
@@ -8628,21 +8637,21 @@
         <v>253</v>
       </c>
       <c r="J189" s="6">
-        <v>28.74783974466</v>
+        <v>28.747839744659998</v>
       </c>
       <c r="K189" s="3">
         <v>8.88037109375</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C190" s="3">
-        <v>2.84060287475586</v>
+        <v>2.8406028747558598</v>
       </c>
       <c r="D190" s="4">
         <v>11.63</v>
@@ -8669,7 +8678,7 @@
         <v>5.80810546875</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>7</v>
       </c>
@@ -8677,7 +8686,7 @@
         <v>171</v>
       </c>
       <c r="C191" s="3">
-        <v>2.79220461845398</v>
+        <v>2.7922046184539799</v>
       </c>
       <c r="D191" s="4">
         <v>13.91</v>
@@ -8704,7 +8713,7 @@
         <v>7.38623046875</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>9</v>
       </c>
@@ -8739,15 +8748,15 @@
         <v>7.28369140625</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C193" s="3">
-        <v>1.82531929016113</v>
+        <v>1.8253192901611299</v>
       </c>
       <c r="D193" s="4">
         <v>4.91</v>
@@ -8768,21 +8777,21 @@
         <v>224</v>
       </c>
       <c r="J193" s="6">
-        <v>25.51560006466</v>
+        <v>25.515600064659999</v>
       </c>
       <c r="K193" s="3">
         <v>6.17626953125</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C194" s="3">
-        <v>3.7178795337677</v>
+        <v>3.7178795337677002</v>
       </c>
       <c r="D194" s="4">
         <v>3.01</v>
@@ -8803,13 +8812,13 @@
         <v>531</v>
       </c>
       <c r="J194" s="6">
-        <v>58.8496618646601</v>
+        <v>58.849661864660099</v>
       </c>
       <c r="K194" s="3">
         <v>6.03662109375</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>12</v>
       </c>
@@ -8817,7 +8826,7 @@
         <v>159</v>
       </c>
       <c r="C195" s="3">
-        <v>2.19955062866211</v>
+        <v>2.1995506286621098</v>
       </c>
       <c r="D195" s="4">
         <v>9.4</v>
@@ -8838,13 +8847,13 @@
         <v>117</v>
       </c>
       <c r="J195" s="6">
-        <v>12.81222926466</v>
+        <v>12.812229264659999</v>
       </c>
       <c r="K195" s="3">
         <v>8.83642578125</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>10</v>
       </c>
@@ -8852,7 +8861,7 @@
         <v>160</v>
       </c>
       <c r="C196" s="3">
-        <v>2.40783071517944</v>
+        <v>2.4078307151794398</v>
       </c>
       <c r="D196" s="4">
         <v>9.4</v>
@@ -8879,7 +8888,7 @@
         <v>8.47021484375</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>11</v>
       </c>
@@ -8908,24 +8917,24 @@
         <v>114</v>
       </c>
       <c r="J197" s="6">
-        <v>12.42224041466</v>
+        <v>12.422240414659999</v>
       </c>
       <c r="K197" s="3">
         <v>7.28369140625</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C198" s="3">
-        <v>2.15291166305542</v>
+        <v>2.1529116630554199</v>
       </c>
       <c r="D198" s="4">
-        <v>4.65</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="E198" s="5">
         <v>1</v>
@@ -8943,13 +8952,13 @@
         <v>301</v>
       </c>
       <c r="J198" s="6">
-        <v>34.08575479466</v>
+        <v>34.085754794659998</v>
       </c>
       <c r="K198" s="3">
         <v>6.93212890625</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>245</v>
       </c>
@@ -8957,10 +8966,10 @@
         <v>153</v>
       </c>
       <c r="C199" s="3">
-        <v>2.8596568107605</v>
+        <v>2.8596568107604998</v>
       </c>
       <c r="D199" s="4">
-        <v>16.19</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="E199" s="5">
         <v>1</v>
@@ -8984,9 +8993,9 @@
         <v>7.07861328125</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>28</v>
@@ -9019,15 +9028,15 @@
         <v>5.50341796875</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C201" s="3">
-        <v>4.3627815246582</v>
+        <v>4.3627815246581996</v>
       </c>
       <c r="D201" s="4">
         <v>13.01</v>
@@ -9048,21 +9057,21 @@
         <v>146</v>
       </c>
       <c r="J201" s="6">
-        <v>16.42819809466</v>
+        <v>16.428198094660001</v>
       </c>
       <c r="K201" s="3">
         <v>4.75439453125</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C202" s="3">
-        <v>1.66284584999084</v>
+        <v>1.6628458499908401</v>
       </c>
       <c r="D202" s="4">
         <v>10.89</v>
@@ -9083,15 +9092,15 @@
         <v>101</v>
       </c>
       <c r="J202" s="6">
-        <v>10.95233439466</v>
+        <v>10.952334394659999</v>
       </c>
       <c r="K202" s="3">
         <v>7.04931640625</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>36</v>
@@ -9118,21 +9127,21 @@
         <v>324</v>
       </c>
       <c r="J203" s="6">
-        <v>36.79505224466</v>
+        <v>36.795052244659999</v>
       </c>
       <c r="K203" s="3">
         <v>6.69775390625</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C204" s="3">
-        <v>3.10177659988403</v>
+        <v>3.1017765998840301</v>
       </c>
       <c r="D204" s="4">
         <v>7.43</v>
@@ -9153,15 +9162,15 @@
         <v>202</v>
       </c>
       <c r="J204" s="6">
-        <v>23.16764947466</v>
+        <v>23.167649474659999</v>
       </c>
       <c r="K204" s="3">
         <v>5.87158203125</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>60</v>
@@ -9194,15 +9203,15 @@
         <v>9.29052734375</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C206" s="3">
-        <v>3.24070858955383</v>
+        <v>3.2407085895538299</v>
       </c>
       <c r="D206" s="4">
         <v>6.15</v>
@@ -9223,21 +9232,21 @@
         <v>260</v>
       </c>
       <c r="J206" s="6">
-        <v>29.35175659466</v>
+        <v>29.351756594659999</v>
       </c>
       <c r="K206" s="3">
         <v>7.84033203125</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C207" s="3">
-        <v>3.25851392745972</v>
+        <v>3.2585139274597199</v>
       </c>
       <c r="D207" s="4">
         <v>3.42</v>
@@ -9258,13 +9267,13 @@
         <v>351</v>
       </c>
       <c r="J207" s="6">
-        <v>38.04255247466</v>
+        <v>38.042552474659999</v>
       </c>
       <c r="K207" s="3">
         <v>6.34130859375</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>18</v>
       </c>
@@ -9272,7 +9281,7 @@
         <v>24</v>
       </c>
       <c r="C208" s="3">
-        <v>2.16476392745972</v>
+        <v>2.1647639274597199</v>
       </c>
       <c r="D208" s="4">
         <v>3.14</v>
@@ -9293,13 +9302,13 @@
         <v>636</v>
       </c>
       <c r="J208" s="6">
-        <v>71.0556911846602</v>
+        <v>71.055691184660205</v>
       </c>
       <c r="K208" s="3">
         <v>9.30517578125</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>212</v>
       </c>
@@ -9307,7 +9316,7 @@
         <v>121</v>
       </c>
       <c r="C209" s="3">
-        <v>3.50320506095886</v>
+        <v>3.5032050609588601</v>
       </c>
       <c r="D209" s="4">
         <v>1.99</v>
@@ -9328,21 +9337,21 @@
         <v>704</v>
       </c>
       <c r="J209" s="6">
-        <v>78.08553348466</v>
+        <v>78.085533484660004</v>
       </c>
       <c r="K209" s="3">
         <v>5.08447265625</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C210" s="3">
-        <v>2.57799601554871</v>
+        <v>2.5779960155487101</v>
       </c>
       <c r="D210" s="4">
         <v>9.85</v>
@@ -9369,9 +9378,9 @@
         <v>5.90966796875</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>117</v>
@@ -9398,21 +9407,21 @@
         <v>180</v>
       </c>
       <c r="J211" s="6">
-        <v>21.07834122466</v>
+        <v>21.078341224660001</v>
       </c>
       <c r="K211" s="3">
         <v>6.21435546875</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C212" s="3">
-        <v>2.66966438293457</v>
+        <v>2.6696643829345699</v>
       </c>
       <c r="D212" s="4">
         <v>3.33</v>
@@ -9433,21 +9442,21 @@
         <v>240</v>
       </c>
       <c r="J212" s="6">
-        <v>26.57164148466</v>
+        <v>26.571641484659999</v>
       </c>
       <c r="K212" s="3">
         <v>7.35693359375</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C213" s="3">
-        <v>3.20078682899475</v>
+        <v>3.2007868289947501</v>
       </c>
       <c r="D213" s="4">
         <v>6.31</v>
@@ -9474,15 +9483,15 @@
         <v>8.73388671875</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C214" s="3">
-        <v>4.56695175170898</v>
+        <v>4.5669517517089799</v>
       </c>
       <c r="D214" s="4">
         <v>14.89</v>
@@ -9509,15 +9518,15 @@
         <v>8.44091796875</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C215" s="3">
-        <v>2.55761432647705</v>
+        <v>2.5576143264770499</v>
       </c>
       <c r="D215" s="4">
         <v>6.33</v>
@@ -9544,7 +9553,7 @@
         <v>8.88037109375</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>241</v>
       </c>
@@ -9555,7 +9564,7 @@
         <v>4.50880670547485</v>
       </c>
       <c r="D216" s="4">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="E216" s="5">
         <v>1</v>
@@ -9579,7 +9588,7 @@
         <v>5.40185546875</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>238</v>
       </c>
@@ -9587,7 +9596,7 @@
         <v>46</v>
       </c>
       <c r="C217" s="3">
-        <v>3.88240003585815</v>
+        <v>3.8824000358581499</v>
       </c>
       <c r="D217" s="4">
         <v>11.29</v>
@@ -9608,13 +9617,13 @@
         <v>124</v>
       </c>
       <c r="J217" s="6">
-        <v>13.17632451466</v>
+        <v>13.176324514659999</v>
       </c>
       <c r="K217" s="3">
         <v>5.41455078125</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>224</v>
       </c>
@@ -9622,7 +9631,7 @@
         <v>101</v>
       </c>
       <c r="C218" s="3">
-        <v>4.42457342147827</v>
+        <v>4.4245734214782697</v>
       </c>
       <c r="D218" s="4">
         <v>8.4</v>
@@ -9643,13 +9652,13 @@
         <v>381</v>
       </c>
       <c r="J218" s="6">
-        <v>43.30097424466</v>
+        <v>43.300974244659997</v>
       </c>
       <c r="K218" s="3">
         <v>6.99072265625</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>239</v>
       </c>
@@ -9684,7 +9693,7 @@
         <v>6.60986328125</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>221</v>
       </c>
@@ -9692,7 +9701,7 @@
         <v>179</v>
       </c>
       <c r="C220" s="3">
-        <v>3.29412341117859</v>
+        <v>3.2941234111785902</v>
       </c>
       <c r="D220" s="4">
         <v>4.2</v>
@@ -9713,21 +9722,21 @@
         <v>333</v>
       </c>
       <c r="J220" s="6">
-        <v>36.2950265346599</v>
+        <v>36.295026534659897</v>
       </c>
       <c r="K220" s="3">
         <v>7.43017578125</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C221" s="3">
-        <v>2.29111957550049</v>
+        <v>2.2911195755004901</v>
       </c>
       <c r="D221" s="4">
         <v>8.89</v>
@@ -9748,13 +9757,13 @@
         <v>135</v>
       </c>
       <c r="J221" s="6">
-        <v>15.05349816466</v>
+        <v>15.053498164660001</v>
       </c>
       <c r="K221" s="3">
         <v>7.09326171875</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>237</v>
       </c>
@@ -9762,7 +9771,7 @@
         <v>190</v>
       </c>
       <c r="C222" s="3">
-        <v>3.74244570732117</v>
+        <v>3.7424457073211701</v>
       </c>
       <c r="D222" s="4">
         <v>48.72</v>
@@ -9783,21 +9792,21 @@
         <v>39</v>
       </c>
       <c r="J222" s="6">
-        <v>4.29679052466</v>
+        <v>4.2967905246600004</v>
       </c>
       <c r="K222" s="3">
         <v>7.13720703125</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C223" s="3">
-        <v>1.98745095729828</v>
+        <v>1.9874509572982799</v>
       </c>
       <c r="D223" s="4">
         <v>9.73</v>
@@ -9824,12 +9833,12 @@
         <v>8.13330078125</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C224" s="3">
         <v>3.49547171592712</v>
@@ -9853,21 +9862,21 @@
         <v>367</v>
       </c>
       <c r="J224" s="6">
-        <v>40.40565668466</v>
+        <v>40.405656684660002</v>
       </c>
       <c r="K224" s="3">
         <v>5.17333984375</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C225" s="3">
-        <v>3.27717328071594</v>
+        <v>3.2771732807159402</v>
       </c>
       <c r="D225" s="4">
         <v>14.67</v>
@@ -9888,18 +9897,18 @@
         <v>75</v>
       </c>
       <c r="J225" s="6">
-        <v>8.14118608466</v>
+        <v>8.1411860846599993</v>
       </c>
       <c r="K225" s="3">
         <v>4.88134765625</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C226" s="3">
         <v>3.43811130523682</v>
@@ -9929,12 +9938,12 @@
         <v>7.12255859375</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C227" s="3">
         <v>2.49910187721252</v>
@@ -9958,21 +9967,21 @@
         <v>183</v>
       </c>
       <c r="J227" s="6">
-        <v>21.05515617466</v>
+        <v>21.055156174659999</v>
       </c>
       <c r="K227" s="3">
         <v>5.68115234375</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C228" s="3">
-        <v>2.73976898193359</v>
+        <v>2.7397689819335902</v>
       </c>
       <c r="D228" s="4">
         <v>2.68</v>
@@ -9993,21 +10002,21 @@
         <v>411</v>
       </c>
       <c r="J228" s="6">
-        <v>46.36826516466</v>
+        <v>46.368265164660002</v>
       </c>
       <c r="K228" s="3">
         <v>6.96142578125</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C229" s="3">
-        <v>3.43207383155823</v>
+        <v>3.4320738315582302</v>
       </c>
       <c r="D229" s="4">
         <v>13.73</v>
@@ -10028,18 +10037,18 @@
         <v>153</v>
       </c>
       <c r="J229" s="6">
-        <v>15.90182760466</v>
+        <v>15.901827604659999</v>
       </c>
       <c r="K229" s="3">
         <v>6.11279296875</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C230" s="3">
         <v>2.91898894309998</v>
@@ -10063,21 +10072,21 @@
         <v>399</v>
       </c>
       <c r="J230" s="6">
-        <v>43.2493789446601</v>
+        <v>43.249378944660101</v>
       </c>
       <c r="K230" s="3">
         <v>6.08740234375</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C231" s="3">
-        <v>2.09160399436951</v>
+        <v>2.0916039943695099</v>
       </c>
       <c r="D231" s="4">
         <v>5.65</v>
@@ -10098,18 +10107,18 @@
         <v>177</v>
       </c>
       <c r="J231" s="6">
-        <v>17.98045317466</v>
+        <v>17.980453174659999</v>
       </c>
       <c r="K231" s="3">
         <v>5.32568359375</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C232" s="3">
         <v>1.85732281208038</v>
@@ -10133,21 +10142,21 @@
         <v>85</v>
       </c>
       <c r="J232" s="6">
-        <v>9.41073748466</v>
+        <v>9.4107374846600003</v>
       </c>
       <c r="K232" s="3">
         <v>4.61474609375</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C233" s="3">
-        <v>3.40587878227234</v>
+        <v>3.4058787822723402</v>
       </c>
       <c r="D233" s="4">
         <v>13.82</v>
@@ -10174,15 +10183,15 @@
         <v>5.14794921875</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C234" s="3">
-        <v>2.76657199859619</v>
+        <v>2.7665719985961901</v>
       </c>
       <c r="D234" s="4">
         <v>15.65</v>
@@ -10209,15 +10218,15 @@
         <v>6.30322265625</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C235" s="3">
-        <v>3.13798594474792</v>
+        <v>3.1379859447479199</v>
       </c>
       <c r="D235" s="4">
         <v>0.7</v>
@@ -10244,15 +10253,15 @@
         <v>9.10009765625</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C236" s="3">
-        <v>3.93184399604797</v>
+        <v>3.9318439960479701</v>
       </c>
       <c r="D236" s="4">
         <v>3.36</v>
@@ -10273,21 +10282,21 @@
         <v>535</v>
       </c>
       <c r="J236" s="6">
-        <v>58.9228025646601</v>
+        <v>58.922802564660103</v>
       </c>
       <c r="K236" s="3">
         <v>5.64306640625</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C237" s="3">
-        <v>2.35063481330872</v>
+        <v>2.3506348133087198</v>
       </c>
       <c r="D237" s="4">
         <v>1.96</v>
@@ -10308,21 +10317,21 @@
         <v>562</v>
       </c>
       <c r="J237" s="6">
-        <v>62.8398827046601</v>
+        <v>62.839882704660099</v>
       </c>
       <c r="K237" s="3">
         <v>5.63037109375</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C238" s="3">
-        <v>2.8576455116272</v>
+        <v>2.8576455116271999</v>
       </c>
       <c r="D238" s="4">
         <v>9.41</v>
@@ -10349,15 +10358,15 @@
         <v>5.51611328125</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C239" s="3">
-        <v>4.2420449256897</v>
+        <v>4.2420449256896999</v>
       </c>
       <c r="D239" s="4">
         <v>7.97</v>
@@ -10378,15 +10387,15 @@
         <v>251</v>
       </c>
       <c r="J239" s="6">
-        <v>26.85684406466</v>
+        <v>26.856844064659999</v>
       </c>
       <c r="K239" s="3">
         <v>5.14794921875</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>196</v>
@@ -10419,18 +10428,18 @@
         <v>5.23681640625</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C241" s="3">
-        <v>4.65649700164795</v>
+        <v>4.6564970016479501</v>
       </c>
       <c r="D241" s="4">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="E241" s="5">
         <v>1</v>
@@ -10448,21 +10457,21 @@
         <v>434</v>
       </c>
       <c r="J241" s="6">
-        <v>47.52744750466</v>
+        <v>47.527447504660003</v>
       </c>
       <c r="K241" s="3">
         <v>5.36376953125</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C242" s="3">
-        <v>2.3934051990509</v>
+        <v>2.3934051990509002</v>
       </c>
       <c r="D242" s="4">
         <v>2.98</v>
@@ -10483,15 +10492,15 @@
         <v>336</v>
       </c>
       <c r="J242" s="6">
-        <v>36.25836189466</v>
+        <v>36.258361894659998</v>
       </c>
       <c r="K242" s="3">
         <v>5.04638671875</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>126</v>
@@ -10518,15 +10527,15 @@
         <v>518</v>
       </c>
       <c r="J243" s="6">
-        <v>58.9717304446601</v>
+        <v>58.971730444660103</v>
       </c>
       <c r="K243" s="3">
         <v>7.06396484375</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>148</v>
@@ -10553,13 +10562,13 @@
         <v>550</v>
       </c>
       <c r="J244" s="6">
-        <v>60.4908812546601</v>
+        <v>60.490881254660103</v>
       </c>
       <c r="K244" s="3">
         <v>5.51611328125</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>62</v>
       </c>
@@ -10588,21 +10597,21 @@
         <v>549</v>
       </c>
       <c r="J245" s="6">
-        <v>59.5345563746601</v>
+        <v>59.534556374660099</v>
       </c>
       <c r="K245" s="3">
         <v>5.42724609375</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C246" s="3">
-        <v>4.14850473403931</v>
+        <v>4.1485047340393102</v>
       </c>
       <c r="D246" s="4">
         <v>2.78</v>
@@ -10623,13 +10632,13 @@
         <v>468</v>
       </c>
       <c r="J246" s="6">
-        <v>54.2816534146601</v>
+        <v>54.281653414660099</v>
       </c>
       <c r="K246" s="3">
         <v>5.94775390625</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>205</v>
       </c>
@@ -10637,7 +10646,7 @@
         <v>79</v>
       </c>
       <c r="C247" s="3">
-        <v>3.49634337425232</v>
+        <v>3.4963433742523198</v>
       </c>
       <c r="D247" s="4">
         <v>7.55</v>
@@ -10664,7 +10673,7 @@
         <v>4.97021484375</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>14</v>
       </c>
@@ -10672,7 +10681,7 @@
         <v>113</v>
       </c>
       <c r="C248" s="3">
-        <v>2.97435688972473</v>
+        <v>2.9743568897247301</v>
       </c>
       <c r="D248" s="4">
         <v>10.45</v>
@@ -10700,10 +10709,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/test_files/mcE67_PD14_Figueres_Proteins.xlsx
+++ b/test_files/mcE67_PD14_Figueres_Proteins.xlsx
@@ -2012,9 +2012,7 @@
   </sheetPr>
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
